--- a/FILE/expe.xlsx
+++ b/FILE/expe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\徐州北站\FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3515795-98DC-4AD8-9F37-D951E56C4187}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B406B26F-4ADF-4BE3-859C-8CE3390D18EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>2s-AGCN+C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>0.28fsp/watt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unstructured pruning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orginal model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours with quantization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours with quantization and input-skipping</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +141,8 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -132,6 +158,2428 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1374352116338497"/>
+          <c:y val="3.5019321655965274E-2"/>
+          <c:w val="0.82945779477443904"/>
+          <c:h val="0.87570078056901379"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ours</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$8:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.94340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93469999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C54-462C-BDF7-0005BEC329F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Unstructured</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$8:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C54-462C-BDF7-0005BEC329F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Unpruned</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$8:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2C54-462C-BDF7-0005BEC329F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Ours+quanzitaion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$8:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.94310000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93440000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2C54-462C-BDF7-0005BEC329F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Ours+quan+input-skip</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93820000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93240000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2C54-462C-BDF7-0005BEC329F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="565463584"/>
+        <c:axId val="565459320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="565463584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Reduction Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565459320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="565459320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.93200000000000005"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.32016577622313341"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565463584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94310000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93820000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A70-4C14-ACA6-23C48FB4DD3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93669999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A70-4C14-ACA6-23C48FB4DD3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9355</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93420000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A70-4C14-ACA6-23C48FB4DD3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93240000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3A70-4C14-ACA6-23C48FB4DD3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="564970744"/>
+        <c:axId val="564976320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="564970744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564976320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564976320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564970744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83455555555555561"/>
+          <c:y val="0.32051983085447655"/>
+          <c:w val="0.14599999999999999"/>
+          <c:h val="0.31250218722659673"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>960917</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68AD414-9889-4F07-904F-71D41B0A0EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166966</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF8C479-80E0-4909-B929-68E3B7BA60CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -409,9 +2857,15 @@
     <col min="3" max="3" width="8.75" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -423,7 +2877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +2891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -449,10 +2903,144 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.93820000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F9" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.93669999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F10" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.9355</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.93420000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F11" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.93240000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F13" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.93920000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.93840000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F15" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.93459999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F16" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.93479999999999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/FILE/expe.xlsx
+++ b/FILE/expe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\徐州北站\FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B406B26F-4ADF-4BE3-859C-8CE3390D18EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D649C5-514F-4889-8E13-03A17B9E1323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>2s-AGCN+C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,86 @@
     <t>Ours with quantization and input-skipping</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>l2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cav-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cav-67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cav-70-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cav-70-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cav-75-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cav-75-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,11 +209,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +238,13 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -948,235 +1050,392 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13517876189289799"/>
+          <c:y val="5.0281298128506326E-2"/>
+          <c:w val="0.83434382924099038"/>
+          <c:h val="0.69089167061682588"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Base sparsity</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$10:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>l2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>l3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>l5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>l6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>l7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>l8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>l9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>l10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$K$8</c:f>
+              <c:f>Sheet1!$O$10:$O$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0%">
-                  <c:v>0.75</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.37909999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94340000000000002</c:v>
+                  <c:v>0.21679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93920000000000003</c:v>
+                  <c:v>0.15759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93400000000000005</c:v>
+                  <c:v>8.5300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94310000000000005</c:v>
+                  <c:v>0.51629999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93820000000000003</c:v>
+                  <c:v>0.42349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90559999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A70-4C14-ACA6-23C48FB4DD3B}"/>
+              <c16:uniqueId val="{00000000-B977-4801-AE9D-F9CC84AC66B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Drop-1</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$10:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>l2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>l3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>l5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>l6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>l7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>l8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>l9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>l10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$K$9</c:f>
+              <c:f>Sheet1!$P$10:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0%">
-                  <c:v>0.83</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94020000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93730000000000002</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93400000000000005</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93669999999999998</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3A70-4C14-ACA6-23C48FB4DD3B}"/>
+              <c16:uniqueId val="{00000001-B977-4801-AE9D-F9CC84AC66B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Drop-2</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$10:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>l2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>l3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>l5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>l6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>l7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>l8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>l9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>l10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$10:$K$10</c:f>
+              <c:f>Sheet1!$Q$10:$Q$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0%">
-                  <c:v>0.86</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93589999999999995</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93459999999999999</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93400000000000005</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9355</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93420000000000003</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3A70-4C14-ACA6-23C48FB4DD3B}"/>
+              <c16:uniqueId val="{00000002-B977-4801-AE9D-F9CC84AC66B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Drop-3</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$10:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>l2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>l3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>l5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>l6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>l7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>l8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>l9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>l10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$11:$K$11</c:f>
+              <c:f>Sheet1!$R$10:$R$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0%">
-                  <c:v>0.88</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93469999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93479999999999996</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93400000000000005</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93440000000000001</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93240000000000001</c:v>
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3A70-4C14-ACA6-23C48FB4DD3B}"/>
+              <c16:uniqueId val="{00000003-B977-4801-AE9D-F9CC84AC66B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1188,17 +1447,95 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="564970744"/>
-        <c:axId val="564976320"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="498571840"/>
+        <c:axId val="498572168"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="564970744"/>
+        <c:axId val="498571840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Layer</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46278167332537329"/>
+              <c:y val="0.81978671659523983"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1220,22 +1557,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564976320"/>
+        <c:crossAx val="498572168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1243,9 +1577,458 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="564976320"/>
+        <c:axId val="498572168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Sparsity/Drop Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3682784559971949E-2"/>
+              <c:y val="0.17301517545005718"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498571840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18225240594925637"/>
+          <c:y val="5.5555555555555552E-2"/>
+          <c:w val="0.63731474190726156"/>
+          <c:h val="0.73389253426654999"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$U$9:$W$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Drop-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Drop-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Drop-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$10:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93679999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4BF-4BBD-B26D-D8B548734F77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="728292464"/>
+        <c:axId val="728286560"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Drop Rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$U$9:$W$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Drop-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Drop-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Drop-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$11:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79949999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4BF-4BBD-B26D-D8B548734F77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="772192936"/>
+        <c:axId val="772191952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="728292464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728286560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="728286560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.94170000000000009"/>
+          <c:min val="0.9365"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1263,7 +2046,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.32405256634587348"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1279,25 +2132,152 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564970744"/>
+        <c:crossAx val="728292464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="772191952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.72500000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Drop</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772192936"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="772192936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="772191952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1307,18 +2287,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.83455555555555561"/>
-          <c:y val="0.32051983085447655"/>
-          <c:w val="0.14599999999999999"/>
-          <c:h val="0.31250218722659673"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1331,16 +2301,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -1386,7 +2353,713 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15988188976377954"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.64551399825021871"/>
+          <c:h val="0.74564741907261589"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pruning Rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Z$4:$AE$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>cav-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cav-67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cav-70-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cav-70-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cav-75-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>cav-75-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$6:$AE$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67669999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0%">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C26C-48EA-93B4-E3671BD67618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="668253456"/>
+        <c:axId val="668259688"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Z$4:$AE$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>cav-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cav-67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cav-70-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cav-70-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cav-75-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>cav-75-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$5:$AE$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.94340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93420000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C26C-48EA-93B4-E3671BD67618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="668264936"/>
+        <c:axId val="668261656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="668253456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Fine-grained Pruning Schemes</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.19063822806011324"/>
+              <c:y val="0.8915503791192767"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668259688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668259688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.77"/>
+          <c:min val="0.45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Pruning</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5226339475786161E-2"/>
+              <c:y val="0.28898111694371531"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668253456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="668261656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.93300000000000005"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.93249620861585447"/>
+              <c:y val="0.29412000583260428"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668264936"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="668264936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="668261656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58924443255910508"/>
+          <c:y val="0.89409667541557303"/>
+          <c:w val="0.41075556744089486"/>
+          <c:h val="7.3450714494021574E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1471,6 +3144,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1988,7 +3741,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2096,11 +3849,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2111,11 +3859,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2147,9 +3890,1012 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2510,13 +5256,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>960917</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>954976</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2543,25 +5289,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257734</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>113178</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>153866</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>347381</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>166966</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>490904</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF8C479-80E0-4909-B929-68E3B7BA60CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3D5A53-286D-4D1D-B027-9FF5DEC3775D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,6 +5320,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2787098</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>376859</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291FC5C9-01CB-4C79-83AA-C1705D913A52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>629478</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>364435</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>58806</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500D2BA8-53BB-4288-B01B-9D130C300443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2845,10 +5663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:BG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2863,9 +5681,10 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="19.375" customWidth="1"/>
     <col min="11" max="11" width="37.5" customWidth="1"/>
+    <col min="51" max="59" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2876,8 +5695,17 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2890,8 +5718,17 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2904,8 +5741,104 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="Z4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="Z5" s="4">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="Z6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0.67669999999999997</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
         <v>9</v>
       </c>
@@ -2924,8 +5857,17 @@
       <c r="K7" t="s">
         <v>14</v>
       </c>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F8" s="3">
         <v>0.75</v>
       </c>
@@ -2944,8 +5886,17 @@
       <c r="K8" s="4">
         <v>0.93820000000000003</v>
       </c>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F9" s="3">
         <v>0.83</v>
       </c>
@@ -2964,8 +5915,26 @@
       <c r="K9" s="4">
         <v>0.93669999999999998</v>
       </c>
+      <c r="U9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F10" s="3">
         <v>0.86</v>
       </c>
@@ -2984,8 +5953,33 @@
       <c r="K10" s="4">
         <v>0.93420000000000003</v>
       </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
+        <v>0.9415</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0.93679999999999997</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F11" s="3">
         <v>0.88</v>
       </c>
@@ -3004,43 +5998,194 @@
       <c r="K11" s="4">
         <v>0.93240000000000001</v>
       </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0.21679999999999999</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="4">
+        <v>0.7319</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.7591</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0.79949999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F13" s="3">
         <v>0.75</v>
       </c>
       <c r="G13" s="4">
         <v>0.93920000000000003</v>
       </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="7">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F14" s="3">
         <v>0.8</v>
       </c>
       <c r="G14" s="4">
         <v>0.93840000000000001</v>
       </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F15" s="3">
         <v>0.85</v>
       </c>
       <c r="G15" s="4">
         <v>0.93459999999999999</v>
       </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F16" s="3">
         <v>0.88</v>
       </c>
       <c r="G16" s="4">
         <v>0.93479999999999996</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="O19" s="7"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20">
+        <v>112</v>
+      </c>
+      <c r="R20" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/FILE/expe.xlsx
+++ b/FILE/expe.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\徐州北站\FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D649C5-514F-4889-8E13-03A17B9E1323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C662018A-7A51-4C8C-B8D9-76EEC3650086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
   <si>
     <t>2s-AGCN+C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,274 @@
   </si>
   <si>
     <t>cav-75-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP in one PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total DSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.79%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.76%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.96%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.46%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70.35%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.73%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86.81%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.54%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.85%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l1.sconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l2.tconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l1.tconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l2.sconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l3.sconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l3.tconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l4.sconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l4.tconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l5.sconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l5.tconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l6.sconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l6.tconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l7.sconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l7.tconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l8.sconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l8.tconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l9.sconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l9.tconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l10.sconv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.01%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sparse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load-cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode-cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2080Ti-original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V100-original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2080Ti-woC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V100-woC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2080Ti-skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V100-skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throughput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed-up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,6 +439,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,6 +517,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3064,6 +3338,503 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14460605135260501"/>
+          <c:y val="5.5671478377196749E-2"/>
+          <c:w val="0.82483825248792864"/>
+          <c:h val="0.81254440849884435"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AN$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sparse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AM$50:$AM$52</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>data</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>index</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AN$50:$AN$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-489E-40C6-AC55-9D8105A58DAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RFC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AM$50:$AM$52</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>data</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>index</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AO$50:$AO$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-489E-40C6-AC55-9D8105A58DAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AM$50:$AM$52</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>data</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>index</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AP$50:$AP$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-489E-40C6-AC55-9D8105A58DAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="580063656"/>
+        <c:axId val="580063328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="580063656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580063328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="580063328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>BRAM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Blocks Used</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580063656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87199417650870992"/>
+          <c:y val="6.0457710277750598E-2"/>
+          <c:w val="9.1130890147554836E-2"/>
+          <c:h val="0.24238018326374999"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3224,6 +3995,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4747,6 +5558,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5397,6 +6711,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>306456</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>505237</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CF6A67-18D5-485C-9F30-2BD74CD2E4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5663,10 +7013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG20"/>
+  <dimension ref="A1:BG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" topLeftCell="AE53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM60" sqref="AM60:AT62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5681,6 +7031,13 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="19.375" customWidth="1"/>
     <col min="11" max="11" width="37.5" customWidth="1"/>
+    <col min="36" max="36" width="12.125" customWidth="1"/>
+    <col min="39" max="39" width="12.875" customWidth="1"/>
+    <col min="41" max="41" width="14.25" customWidth="1"/>
+    <col min="42" max="42" width="12.5" customWidth="1"/>
+    <col min="43" max="43" width="10.875" customWidth="1"/>
+    <col min="44" max="44" width="10.125" customWidth="1"/>
+    <col min="45" max="45" width="10" customWidth="1"/>
     <col min="51" max="59" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5718,6 +7075,9 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="AR2">
+        <v>0.58748152380952301</v>
+      </c>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8"/>
@@ -5741,6 +7101,9 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="AR3">
+        <v>0.73951304761904701</v>
+      </c>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8"/>
       <c r="BA3" s="8"/>
@@ -5770,6 +7133,24 @@
       <c r="AE4" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="AI4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR4">
+        <v>0.89474466666666597</v>
+      </c>
       <c r="AY4" s="8"/>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
@@ -5799,6 +7180,24 @@
       <c r="AE5" s="4">
         <v>0.93420000000000003</v>
       </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0.55138223809523801</v>
+      </c>
       <c r="AY5" s="8"/>
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8"/>
@@ -5828,6 +7227,24 @@
       <c r="AE6" s="3">
         <v>0.75</v>
       </c>
+      <c r="AI6">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AR6">
+        <v>0.80333409523809496</v>
+      </c>
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
       <c r="BA6" s="8"/>
@@ -5857,6 +7274,24 @@
       <c r="K7" t="s">
         <v>14</v>
       </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0.77801642857142805</v>
+      </c>
       <c r="AY7" s="8"/>
       <c r="AZ7" s="8"/>
       <c r="BA7" s="8"/>
@@ -5886,6 +7321,24 @@
       <c r="K8" s="4">
         <v>0.93820000000000003</v>
       </c>
+      <c r="AI8">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AR8">
+        <v>0.57519619047618997</v>
+      </c>
       <c r="AY8" s="8"/>
       <c r="AZ8" s="8"/>
       <c r="BA8" s="8"/>
@@ -5924,6 +7377,24 @@
       <c r="W9" t="s">
         <v>28</v>
       </c>
+      <c r="AI9">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0.59574519047619001</v>
+      </c>
       <c r="AY9" s="8"/>
       <c r="AZ9" s="8"/>
       <c r="BA9" s="8"/>
@@ -5978,6 +7449,24 @@
       <c r="W10" s="4">
         <v>0.93679999999999997</v>
       </c>
+      <c r="AI10">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AR10">
+        <v>0.58134138095238097</v>
+      </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F11" s="3">
@@ -6023,6 +7512,25 @@
       <c r="W11" s="4">
         <v>0.79949999999999999</v>
       </c>
+      <c r="AI11">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AR11">
+        <f>AVERAGE(AR2:AR10)</f>
+        <v>0.67852830687830645</v>
+      </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="N12" t="s">
@@ -6040,6 +7548,21 @@
       <c r="R12" s="7">
         <v>0.35</v>
       </c>
+      <c r="AI12">
+        <v>8</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F13" s="3">
@@ -6063,6 +7586,21 @@
       <c r="R13" s="7">
         <v>0.32</v>
       </c>
+      <c r="AI13">
+        <v>9</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F14" s="3">
@@ -6086,6 +7624,21 @@
       <c r="R14" s="7">
         <v>0.71</v>
       </c>
+      <c r="AI14">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F15" s="3">
@@ -6109,6 +7662,18 @@
       <c r="R15" s="7">
         <v>0.62</v>
       </c>
+      <c r="AI15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK15">
+        <v>882</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>0.75380000000000003</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>6.4799999999999996E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F16" s="3">
@@ -6132,8 +7697,20 @@
       <c r="R16" s="7">
         <v>0.56000000000000005</v>
       </c>
+      <c r="AI16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK16">
+        <v>1149</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>0.5786</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="14:47" x14ac:dyDescent="0.2">
       <c r="N17" t="s">
         <v>22</v>
       </c>
@@ -6150,7 +7727,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="18" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="14:47" x14ac:dyDescent="0.2">
       <c r="N18" t="s">
         <v>23</v>
       </c>
@@ -6167,11 +7744,11 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="19" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="14:47" x14ac:dyDescent="0.2">
       <c r="O19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="14:47" x14ac:dyDescent="0.2">
       <c r="P20" t="s">
         <v>24</v>
       </c>
@@ -6180,6 +7757,963 @@
       </c>
       <c r="R20" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="14:47" x14ac:dyDescent="0.2">
+      <c r="AI24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="14:47" x14ac:dyDescent="0.2">
+      <c r="AI25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="AM25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ25" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR25" s="11">
+        <v>6</v>
+      </c>
+      <c r="AS25" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="11">
+        <f>AP25+AQ25+AR25+AS25</f>
+        <v>23</v>
+      </c>
+      <c r="AU25">
+        <f>4*AT25</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="14:47" x14ac:dyDescent="0.2">
+      <c r="AI26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP26" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ26" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR26" s="11">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="11">
+        <f t="shared" ref="AT26:AT43" si="0">AP26+AQ26+AR26+AS26</f>
+        <v>17</v>
+      </c>
+      <c r="AU26" s="7">
+        <f t="shared" ref="AU26:AU43" si="1">4*AT26</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="14:47" x14ac:dyDescent="0.2">
+      <c r="AI27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>0.75790000000000002</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>0.23480000000000001</v>
+      </c>
+      <c r="AO27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP27" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ27" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR27" s="11">
+        <v>7</v>
+      </c>
+      <c r="AS27" s="11">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AU27" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="14:47" x14ac:dyDescent="0.2">
+      <c r="AI28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>0.65759999999999996</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP28" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ28" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR28" s="11">
+        <v>7</v>
+      </c>
+      <c r="AS28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AU28" s="7">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="14:47" x14ac:dyDescent="0.2">
+      <c r="AI29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>1.24E-2</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="AO29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP29" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ29" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR29" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS29" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AU29" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="14:47" x14ac:dyDescent="0.2">
+      <c r="AI30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="AM30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP30" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ30" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR30" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS30" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AU30" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="14:47" x14ac:dyDescent="0.2">
+      <c r="AI31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="AO31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP31" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ31" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR31" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS31" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AU31" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="14:47" x14ac:dyDescent="0.2">
+      <c r="AI32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>0.4224</v>
+      </c>
+      <c r="AO32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP32" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ32" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR32" s="11">
+        <v>5</v>
+      </c>
+      <c r="AS32" s="11">
+        <v>3</v>
+      </c>
+      <c r="AT32" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AU32" s="7">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="AM33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ33" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR33" s="11">
+        <v>2</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AU33" s="7">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP34" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ34" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AS34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AU34" s="7">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>0.62970000000000004</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="AM35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP35" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ35" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR35" s="11">
+        <v>3</v>
+      </c>
+      <c r="AS35" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AU35" s="7">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>0.68910000000000005</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>0.31090000000000001</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP36" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ36" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR36" s="11">
+        <v>3</v>
+      </c>
+      <c r="AS36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AU36" s="7">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>0.40060000000000001</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>0.59740000000000004</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>1.9E-3</v>
+      </c>
+      <c r="AO37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP37" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ37" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR37" s="11">
+        <v>5</v>
+      </c>
+      <c r="AS37" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AU37" s="7">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="AM38" s="4">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="AO38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP38" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ38" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR38" s="11">
+        <v>7</v>
+      </c>
+      <c r="AS38" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AU38" s="7">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>0.1295</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>2</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AU39" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI40" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP40" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AU40" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ41" s="4">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="AK41" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AL41" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AM41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR41" s="11">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AU41" s="7">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP42" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AU42" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ43" s="4">
+        <v>0.2949</v>
+      </c>
+      <c r="AK43" s="4">
+        <v>0.70509999999999995</v>
+      </c>
+      <c r="AL43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP43" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ43" s="11">
+        <v>6</v>
+      </c>
+      <c r="AR43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AU43" s="7">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="35:47" x14ac:dyDescent="0.2">
+      <c r="AI44" s="7"/>
+      <c r="AU44">
+        <f>SUM(AU25:AU43)</f>
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="49" spans="39:47" x14ac:dyDescent="0.2">
+      <c r="AN49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU49" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="39:47" x14ac:dyDescent="0.2">
+      <c r="AM50" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN50">
+        <v>2560</v>
+      </c>
+      <c r="AO50" s="7">
+        <v>1460</v>
+      </c>
+      <c r="AP50">
+        <v>1399</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS50">
+        <v>1</v>
+      </c>
+      <c r="AT50">
+        <v>1</v>
+      </c>
+      <c r="AU50">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="39:47" x14ac:dyDescent="0.2">
+      <c r="AM51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>180</v>
+      </c>
+      <c r="AP51">
+        <v>280</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>4</v>
+      </c>
+      <c r="AU51">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="39:47" x14ac:dyDescent="0.2">
+      <c r="AM52" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN52">
+        <v>2560</v>
+      </c>
+      <c r="AO52">
+        <v>1640</v>
+      </c>
+      <c r="AP52">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="60" spans="39:47" x14ac:dyDescent="0.2">
+      <c r="AN60" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP60" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR60" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT60" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="39:47" x14ac:dyDescent="0.2">
+      <c r="AM61" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN61">
+        <v>271.25</v>
+      </c>
+      <c r="AO61">
+        <v>28.63</v>
+      </c>
+      <c r="AP61">
+        <v>45.08</v>
+      </c>
+      <c r="AQ61">
+        <v>69.38</v>
+      </c>
+      <c r="AR61">
+        <v>98.87</v>
+      </c>
+      <c r="AS61">
+        <v>141</v>
+      </c>
+      <c r="AT61">
+        <v>199.09</v>
+      </c>
+    </row>
+    <row r="62" spans="39:47" x14ac:dyDescent="0.2">
+      <c r="AM62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO62">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="AP62">
+        <v>6.02</v>
+      </c>
+      <c r="AQ62">
+        <v>3.91</v>
+      </c>
+      <c r="AR62">
+        <v>2.74</v>
+      </c>
+      <c r="AS62">
+        <v>1.92</v>
+      </c>
+      <c r="AT62">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/FILE/expe.xlsx
+++ b/FILE/expe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\徐州北站\FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C662018A-7A51-4C8C-B8D9-76EEC3650086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9719EFE9-DC80-4894-AE4C-0BDDB4D606B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3393,6 +3393,91 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3F46-4975-8FC0-75D5BDD4E722}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AM$50:$AM$52</c:f>
@@ -3420,7 +3505,7 @@
                   <c:v>2560</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2560</c:v>
@@ -3458,6 +3543,61 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AM$50:$AM$52</c:f>
@@ -3523,6 +3663,61 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AM$50:$AM$52</c:f>
@@ -3565,8 +3760,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3606,7 +3802,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -3736,7 +3932,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -3766,8 +3962,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.87199417650870992"/>
-          <c:y val="6.0457710277750598E-2"/>
+          <c:x val="0.88814755915990518"/>
+          <c:y val="3.513142376711572E-2"/>
           <c:w val="9.1130890147554836E-2"/>
           <c:h val="0.24238018326374999"/>
         </c:manualLayout>
@@ -3829,8 +4025,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="1.3149999999999999" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6713,16 +6909,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>306456</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>81999</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>474975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>16056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>505237</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>24847</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>234142</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142077</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7015,8 +7211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM60" sqref="AM60:AT62"/>
+    <sheetView tabSelected="1" topLeftCell="AD24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AM38" sqref="AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8609,7 +8805,7 @@
         <v>88</v>
       </c>
       <c r="AN51">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO51">
         <v>180</v>

--- a/FILE/expe.xlsx
+++ b/FILE/expe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\徐州北站\FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\XUZHOUBEI-Station\FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9719EFE9-DC80-4894-AE4C-0BDDB4D606B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9685F495-B14F-441D-A8F8-29B71CF326E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1138,8 +1138,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0"/>
-              <c:y val="0.32016577622313341"/>
+              <c:x val="2.0094561525591768E-3"/>
+              <c:y val="0.32235926351775102"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1239,6 +1239,16 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.59403447498498752"/>
+          <c:y val="2.8744087092320576E-2"/>
+          <c:w val="0.39329725480912142"/>
+          <c:h val="0.26673532052297638"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6763,16 +6773,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>960917</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>954976</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>886693</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>96981</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7211,33 +7221,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AM38" sqref="AM38"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
-    <col min="11" max="11" width="37.5" customWidth="1"/>
-    <col min="36" max="36" width="12.125" customWidth="1"/>
-    <col min="39" max="39" width="12.875" customWidth="1"/>
-    <col min="41" max="41" width="14.25" customWidth="1"/>
-    <col min="42" max="42" width="12.5" customWidth="1"/>
-    <col min="43" max="43" width="10.875" customWidth="1"/>
-    <col min="44" max="44" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="37.44140625" customWidth="1"/>
+    <col min="36" max="36" width="12.109375" customWidth="1"/>
+    <col min="39" max="39" width="12.88671875" customWidth="1"/>
+    <col min="41" max="41" width="14.21875" customWidth="1"/>
+    <col min="42" max="42" width="12.44140625" customWidth="1"/>
+    <col min="43" max="43" width="10.88671875" customWidth="1"/>
+    <col min="44" max="44" width="10.109375" customWidth="1"/>
     <col min="45" max="45" width="10" customWidth="1"/>
-    <col min="51" max="59" width="2.5" customWidth="1"/>
+    <col min="51" max="59" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -7258,7 +7268,7 @@
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
     </row>
-    <row r="2" spans="1:59" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7284,7 +7294,7 @@
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
     </row>
-    <row r="3" spans="1:59" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7310,7 +7320,7 @@
       <c r="BF3" s="8"/>
       <c r="BG3" s="8"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="Z4" t="s">
         <v>29</v>
       </c>
@@ -7357,7 +7367,7 @@
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="Z5" s="4">
         <v>0.94340000000000002</v>
       </c>
@@ -7404,7 +7414,7 @@
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="Z6" s="3">
         <v>0.5</v>
       </c>
@@ -7451,7 +7461,7 @@
       <c r="BF6" s="8"/>
       <c r="BG6" s="8"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>9</v>
       </c>
@@ -7498,7 +7508,7 @@
       <c r="BF7" s="8"/>
       <c r="BG7" s="8"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F8" s="3">
         <v>0.75</v>
       </c>
@@ -7545,7 +7555,7 @@
       <c r="BF8" s="8"/>
       <c r="BG8" s="8"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F9" s="3">
         <v>0.83</v>
       </c>
@@ -7601,7 +7611,7 @@
       <c r="BF9" s="8"/>
       <c r="BG9" s="8"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F10" s="3">
         <v>0.86</v>
       </c>
@@ -7664,7 +7674,7 @@
         <v>0.58134138095238097</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F11" s="3">
         <v>0.88</v>
       </c>
@@ -7728,7 +7738,7 @@
         <v>0.67852830687830645</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="N12" t="s">
         <v>17</v>
       </c>
@@ -7760,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F13" s="3">
         <v>0.75</v>
       </c>
@@ -7798,7 +7808,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F14" s="3">
         <v>0.8</v>
       </c>
@@ -7836,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F15" s="3">
         <v>0.85</v>
       </c>
@@ -7871,7 +7881,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="F16" s="3">
         <v>0.88</v>
       </c>
@@ -7906,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="14:47" x14ac:dyDescent="0.25">
       <c r="N17" t="s">
         <v>22</v>
       </c>
@@ -7923,7 +7933,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="18" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="14:47" x14ac:dyDescent="0.25">
       <c r="N18" t="s">
         <v>23</v>
       </c>
@@ -7940,11 +7950,11 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="19" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="14:47" x14ac:dyDescent="0.25">
       <c r="O19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="14:47" x14ac:dyDescent="0.25">
       <c r="P20" t="s">
         <v>24</v>
       </c>
@@ -7955,7 +7965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="14:47" x14ac:dyDescent="0.25">
       <c r="AI24" t="s">
         <v>35</v>
       </c>
@@ -7987,7 +7997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="14:47" x14ac:dyDescent="0.25">
       <c r="AI25" t="s">
         <v>61</v>
       </c>
@@ -8027,7 +8037,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="26" spans="14:47" x14ac:dyDescent="0.25">
       <c r="AI26" t="s">
         <v>63</v>
       </c>
@@ -8067,7 +8077,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="14:47" x14ac:dyDescent="0.25">
       <c r="AI27" s="7" t="s">
         <v>64</v>
       </c>
@@ -8107,7 +8117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="28" spans="14:47" x14ac:dyDescent="0.25">
       <c r="AI28" s="7" t="s">
         <v>62</v>
       </c>
@@ -8147,7 +8157,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="29" spans="14:47" x14ac:dyDescent="0.25">
       <c r="AI29" s="7" t="s">
         <v>65</v>
       </c>
@@ -8187,7 +8197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="30" spans="14:47" x14ac:dyDescent="0.25">
       <c r="AI30" s="7" t="s">
         <v>66</v>
       </c>
@@ -8227,7 +8237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="31" spans="14:47" x14ac:dyDescent="0.25">
       <c r="AI31" s="7" t="s">
         <v>67</v>
       </c>
@@ -8267,7 +8277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="14:47" x14ac:dyDescent="0.2">
+    <row r="32" spans="14:47" x14ac:dyDescent="0.25">
       <c r="AI32" s="7" t="s">
         <v>68</v>
       </c>
@@ -8307,7 +8317,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="33" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI33" s="7" t="s">
         <v>69</v>
       </c>
@@ -8347,7 +8357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="34" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI34" s="7" t="s">
         <v>70</v>
       </c>
@@ -8387,7 +8397,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="35" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI35" s="7" t="s">
         <v>71</v>
       </c>
@@ -8427,7 +8437,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="36" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI36" s="7" t="s">
         <v>72</v>
       </c>
@@ -8467,7 +8477,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="37" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI37" s="7" t="s">
         <v>73</v>
       </c>
@@ -8507,7 +8517,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="38" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI38" s="7" t="s">
         <v>74</v>
       </c>
@@ -8547,7 +8557,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="39" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI39" s="7" t="s">
         <v>75</v>
       </c>
@@ -8587,7 +8597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="40" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI40" s="7" t="s">
         <v>76</v>
       </c>
@@ -8627,7 +8637,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="41" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI41" s="7" t="s">
         <v>77</v>
       </c>
@@ -8667,7 +8677,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="42" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI42" s="7" t="s">
         <v>78</v>
       </c>
@@ -8707,7 +8717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="43" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI43" s="7" t="s">
         <v>79</v>
       </c>
@@ -8747,14 +8757,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="44" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI44" s="7"/>
       <c r="AU44">
         <f>SUM(AU25:AU43)</f>
         <v>1460</v>
       </c>
     </row>
-    <row r="49" spans="39:47" x14ac:dyDescent="0.2">
+    <row r="49" spans="39:47" x14ac:dyDescent="0.25">
       <c r="AN49" t="s">
         <v>85</v>
       </c>
@@ -8774,7 +8784,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="39:47" x14ac:dyDescent="0.2">
+    <row r="50" spans="39:47" x14ac:dyDescent="0.25">
       <c r="AM50" t="s">
         <v>92</v>
       </c>
@@ -8800,7 +8810,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="39:47" x14ac:dyDescent="0.2">
+    <row r="51" spans="39:47" x14ac:dyDescent="0.25">
       <c r="AM51" t="s">
         <v>88</v>
       </c>
@@ -8826,7 +8836,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="39:47" x14ac:dyDescent="0.2">
+    <row r="52" spans="39:47" x14ac:dyDescent="0.25">
       <c r="AM52" t="s">
         <v>91</v>
       </c>
@@ -8840,7 +8850,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="60" spans="39:47" x14ac:dyDescent="0.2">
+    <row r="60" spans="39:47" x14ac:dyDescent="0.25">
       <c r="AN60" t="s">
         <v>93</v>
       </c>
@@ -8863,7 +8873,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="39:47" x14ac:dyDescent="0.2">
+    <row r="61" spans="39:47" x14ac:dyDescent="0.25">
       <c r="AM61" t="s">
         <v>100</v>
       </c>
@@ -8889,7 +8899,7 @@
         <v>199.09</v>
       </c>
     </row>
-    <row r="62" spans="39:47" x14ac:dyDescent="0.2">
+    <row r="62" spans="39:47" x14ac:dyDescent="0.25">
       <c r="AM62" t="s">
         <v>101</v>
       </c>
